--- a/planilla_carga.xlsx
+++ b/planilla_carga.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="308">
   <si>
     <t>ID</t>
   </si>
@@ -222,6 +222,720 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>79251</t>
+  </si>
+  <si>
+    <t>110896669</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Pasta||Laptop</t>
+  </si>
+  <si>
+    <t>ALIMENTO||TECNOLOGIA</t>
+  </si>
+  <si>
+    <t>636268.4955350339</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>67347</t>
+  </si>
+  <si>
+    <t>554890000</t>
+  </si>
+  <si>
+    <t>Viña del Mar</t>
+  </si>
+  <si>
+    <t>Laptop||Cepillo de dientes</t>
+  </si>
+  <si>
+    <t>TECNOLOGIA||COSMETICO</t>
+  </si>
+  <si>
+    <t>844767.8457654255</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>52245</t>
+  </si>
+  <si>
+    <t>523554303</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>ARGENTINA</t>
+  </si>
+  <si>
+    <t>Mar del Plata</t>
+  </si>
+  <si>
+    <t>Secadora||Perfume||Carne</t>
+  </si>
+  <si>
+    <t>ELECTRODOMESTICO||COSMETICO||ALIMENTO</t>
+  </si>
+  <si>
+    <t>655905.4343639193</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>22507</t>
+  </si>
+  <si>
+    <t>721433501</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>COLOMBIA</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>Auriculares inalámbricos||Pan||Smartphone</t>
+  </si>
+  <si>
+    <t>TECNOLOGIA||ALIMENTO||TECNOLOGIA</t>
+  </si>
+  <si>
+    <t>407497.2371554932</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>61189</t>
+  </si>
+  <si>
+    <t>217896726</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Lavadora||Horno||Impresora</t>
+  </si>
+  <si>
+    <t>ELECTRODOMESTICO||ELECTRODOMESTICO||TECNOLOGIA</t>
+  </si>
+  <si>
+    <t>595495.4313277756</t>
+  </si>
+  <si>
+    <t>93840</t>
+  </si>
+  <si>
+    <t>364958555</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t>Aspiradora||Batidora||Cafetera</t>
+  </si>
+  <si>
+    <t>ELECTRODOMESTICO||ELECTRODOMESTICO||ELECTRODOMESTICO</t>
+  </si>
+  <si>
+    <t>700086.8450605599</t>
+  </si>
+  <si>
+    <t>90035</t>
+  </si>
+  <si>
+    <t>464639071</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Edmonton</t>
+  </si>
+  <si>
+    <t>Secadora||Pan</t>
+  </si>
+  <si>
+    <t>ELECTRODOMESTICO||ALIMENTO</t>
+  </si>
+  <si>
+    <t>660887.0783492986</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>74753</t>
+  </si>
+  <si>
+    <t>575118964</t>
+  </si>
+  <si>
+    <t>Sofía</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Temuco</t>
+  </si>
+  <si>
+    <t>Consola de videojuegos||Maquillaje||Pasta</t>
+  </si>
+  <si>
+    <t>TECNOLOGIA||COSMETICO||ALIMENTO</t>
+  </si>
+  <si>
+    <t>506087.96278158855</t>
+  </si>
+  <si>
+    <t>85029</t>
+  </si>
+  <si>
+    <t>710261513</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Microondas||Horno||Crema facial</t>
+  </si>
+  <si>
+    <t>ELECTRODOMESTICO||ELECTRODOMESTICO||COSMETICO</t>
+  </si>
+  <si>
+    <t>511923.7303465953</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>41985</t>
+  </si>
+  <si>
+    <t>661968071</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>200499.3889593876</t>
+  </si>
+  <si>
+    <t>87084</t>
+  </si>
+  <si>
+    <t>552778271</t>
+  </si>
+  <si>
+    <t>Lucía</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>Aspiradora</t>
+  </si>
+  <si>
+    <t>ELECTRODOMESTICO</t>
+  </si>
+  <si>
+    <t>731465.7149419861</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>40158</t>
+  </si>
+  <si>
+    <t>425988938</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
+  </si>
+  <si>
+    <t>Sídney</t>
+  </si>
+  <si>
+    <t>Desodorante||Cepillo de dientes</t>
+  </si>
+  <si>
+    <t>COSMETICO||COSMETICO</t>
+  </si>
+  <si>
+    <t>455295.9004319716</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>51734</t>
+  </si>
+  <si>
+    <t>500644869</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Refrigerador||Protector solar</t>
+  </si>
+  <si>
+    <t>ELECTRODOMESTICO||COSMETICO</t>
+  </si>
+  <si>
+    <t>808284.3847981391</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>14626</t>
+  </si>
+  <si>
+    <t>922608565</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>La Serena</t>
+  </si>
+  <si>
+    <t>Impresora||Secadora</t>
+  </si>
+  <si>
+    <t>TECNOLOGIA||ELECTRODOMESTICO</t>
+  </si>
+  <si>
+    <t>174364.1551271428</t>
+  </si>
+  <si>
+    <t>15176</t>
+  </si>
+  <si>
+    <t>470672938</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Nueva Delhi</t>
+  </si>
+  <si>
+    <t>Carne||Cremas corporales||Cámara digital</t>
+  </si>
+  <si>
+    <t>ALIMENTO||COSMETICO||TECNOLOGIA</t>
+  </si>
+  <si>
+    <t>580821.8673207096</t>
+  </si>
+  <si>
+    <t>73811</t>
+  </si>
+  <si>
+    <t>958549505</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Consola de videojuegos</t>
+  </si>
+  <si>
+    <t>348800.32278382825</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>17276</t>
+  </si>
+  <si>
+    <t>592044594</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t>Maquillaje</t>
+  </si>
+  <si>
+    <t>202853.12772871542</t>
+  </si>
+  <si>
+    <t>30744</t>
+  </si>
+  <si>
+    <t>540580764</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Maquillaje||Shampoo</t>
+  </si>
+  <si>
+    <t>961205.8567998665</t>
+  </si>
+  <si>
+    <t>46880</t>
+  </si>
+  <si>
+    <t>277333773</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Refrigerador</t>
+  </si>
+  <si>
+    <t>287870.4104075442</t>
+  </si>
+  <si>
+    <t>33244</t>
+  </si>
+  <si>
+    <t>441375445</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Bucaramanga</t>
+  </si>
+  <si>
+    <t>Gel de ducha||Cafetera||Gel de ducha</t>
+  </si>
+  <si>
+    <t>COSMETICO||ELECTRODOMESTICO||COSMETICO</t>
+  </si>
+  <si>
+    <t>195126.13420152536</t>
+  </si>
+  <si>
+    <t>78238</t>
+  </si>
+  <si>
+    <t>673739563</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Nueva York</t>
+  </si>
+  <si>
+    <t>Acondicionador||Pollo||Acondicionador</t>
+  </si>
+  <si>
+    <t>COSMETICO||ALIMENTO||COSMETICO</t>
+  </si>
+  <si>
+    <t>437788.8525995417</t>
+  </si>
+  <si>
+    <t>60863</t>
+  </si>
+  <si>
+    <t>408344083</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>ALIMENTO</t>
+  </si>
+  <si>
+    <t>947507.9818943929</t>
+  </si>
+  <si>
+    <t>37690</t>
+  </si>
+  <si>
+    <t>258051182</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Impresora||Protector solar||Shampoo</t>
+  </si>
+  <si>
+    <t>TECNOLOGIA||COSMETICO||COSMETICO</t>
+  </si>
+  <si>
+    <t>548861.1790289532</t>
+  </si>
+  <si>
+    <t>69335</t>
+  </si>
+  <si>
+    <t>594822894</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Los Ángeles</t>
+  </si>
+  <si>
+    <t>Maquillaje||Router||Acondicionador</t>
+  </si>
+  <si>
+    <t>COSMETICO||TECNOLOGIA||COSMETICO</t>
+  </si>
+  <si>
+    <t>901527.2080030121</t>
+  </si>
+  <si>
+    <t>13150</t>
+  </si>
+  <si>
+    <t>219617237</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Desodorante||Cepillo de dientes||Perfume</t>
+  </si>
+  <si>
+    <t>COSMETICO||COSMETICO||COSMETICO</t>
+  </si>
+  <si>
+    <t>229663.88704475653</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>74867</t>
+  </si>
+  <si>
+    <t>688231622</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Cámara digital</t>
+  </si>
+  <si>
+    <t>709357.1068582073</t>
+  </si>
+  <si>
+    <t>43939</t>
+  </si>
+  <si>
+    <t>399205495</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Cámara digital||Pollo</t>
+  </si>
+  <si>
+    <t>782713.073637777</t>
+  </si>
+  <si>
+    <t>39476</t>
+  </si>
+  <si>
+    <t>896925604</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>329119.17442463746</t>
+  </si>
+  <si>
+    <t>97575</t>
+  </si>
+  <si>
+    <t>233559864</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Iquitos</t>
+  </si>
+  <si>
+    <t>Horno||Maquillaje</t>
+  </si>
+  <si>
+    <t>354026.9346732736</t>
+  </si>
+  <si>
+    <t>82846</t>
+  </si>
+  <si>
+    <t>627712877</t>
+  </si>
+  <si>
+    <t>Gold Coast</t>
+  </si>
+  <si>
+    <t>Carne</t>
+  </si>
+  <si>
+    <t>711425.7602015021</t>
+  </si>
+  <si>
+    <t>57531</t>
+  </si>
+  <si>
+    <t>644500020</t>
+  </si>
+  <si>
+    <t>La Plata</t>
+  </si>
+  <si>
+    <t>Cremas corporales||Smartphone</t>
+  </si>
+  <si>
+    <t>COSMETICO||TECNOLOGIA</t>
+  </si>
+  <si>
+    <t>341234.46753101563</t>
+  </si>
+  <si>
+    <t>58868</t>
+  </si>
+  <si>
+    <t>914124278</t>
+  </si>
+  <si>
+    <t>Shampoo||Gel de ducha</t>
+  </si>
+  <si>
+    <t>543815.3031483594</t>
+  </si>
+  <si>
+    <t>97821</t>
+  </si>
+  <si>
+    <t>964404752</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Secadora</t>
+  </si>
+  <si>
+    <t>904724.788806216</t>
+  </si>
+  <si>
+    <t>22770</t>
+  </si>
+  <si>
+    <t>964324029</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>Impresora</t>
+  </si>
+  <si>
+    <t>714378.271173068</t>
+  </si>
+  <si>
+    <t>73526</t>
+  </si>
+  <si>
+    <t>446289156</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Pan||Perfume</t>
+  </si>
+  <si>
+    <t>ALIMENTO||COSMETICO</t>
+  </si>
+  <si>
+    <t>896412.2509076085</t>
   </si>
 </sst>
 </file>
@@ -266,7 +980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -277,11 +991,11 @@
     <col min="3" max="3" width="8.39453125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.4765625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="9.2109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.8046875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="9.28125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="33.36328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="38.5859375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="19.43359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.25" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="41.45703125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="62.09375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="20.546875" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="16.37890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="4.875" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="5.49609375" customWidth="true" bestFit="true"/>
@@ -538,6 +1252,1441 @@
         <v>26</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="M11" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="M14" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="L15" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="M15" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="M16" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="M18" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="M20" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="M21" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L22" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="M22" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M23" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="L24" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="M24" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="M25" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="L26" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="M26" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="L27" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="M27" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="L28" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="M28" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="K29" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="L29" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M29" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="L30" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="M30" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="K31" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L31" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="M31" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="L32" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="M32" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="K33" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L33" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="M33" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="K34" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="L34" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="M34" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="L35" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="M35" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="K36" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="L36" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="M36" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="K37" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="M37" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="K38" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="L38" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="M38" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="K39" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="L39" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="M39" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="K40" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="L40" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="M40" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="K41" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="L41" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="M41" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="K42" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="L42" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="M42" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/planilla_carga.xlsx
+++ b/planilla_carga.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="331">
   <si>
     <t>ID</t>
   </si>
@@ -936,6 +936,75 @@
   </si>
   <si>
     <t>896412.2509076085</t>
+  </si>
+  <si>
+    <t>82560</t>
+  </si>
+  <si>
+    <t>775571623</t>
+  </si>
+  <si>
+    <t>Medellín</t>
+  </si>
+  <si>
+    <t>Aspiradora||Pan</t>
+  </si>
+  <si>
+    <t>985349.2435178054</t>
+  </si>
+  <si>
+    <t>43963</t>
+  </si>
+  <si>
+    <t>998705680</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Cepillo de dientes</t>
+  </si>
+  <si>
+    <t>375302.89530345425</t>
+  </si>
+  <si>
+    <t>79471</t>
+  </si>
+  <si>
+    <t>578927681</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Batidora||Horno</t>
+  </si>
+  <si>
+    <t>ELECTRODOMESTICO||ELECTRODOMESTICO</t>
+  </si>
+  <si>
+    <t>650772.6144401672</t>
+  </si>
+  <si>
+    <t>91054</t>
+  </si>
+  <si>
+    <t>714860768</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>719233.2007133622</t>
   </si>
 </sst>
 </file>
@@ -980,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2687,6 +2756,170 @@
         <v>78</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="K43" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="L43" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M43" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="K44" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="L44" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M44" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="K45" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="L45" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M45" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="K46" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="L46" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="M46" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
